--- a/ors_news_crawler.xlsx
+++ b/ors_news_crawler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3773B-F369-4F2D-866B-097423D17260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4E859-8BAB-45A5-828D-AC8872C3A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2024.03.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배당금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수집포함 keyword
 (컬럼간 and 조건)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +128,6 @@
   <si>
     <t>검색 종료일자
 (YYYY.MM.DD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저축은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -692,7 +684,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,7 +695,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -711,16 +703,16 @@
     </row>
     <row r="2" spans="1:10" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -731,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -739,11 +731,11 @@
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11"/>
       <c r="J4" s="4" t="s">
@@ -764,29 +756,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="J7" s="4" t="s">
         <v>8</v>
       </c>

--- a/ors_news_crawler.xlsx
+++ b/ors_news_crawler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4E859-8BAB-45A5-828D-AC8872C3A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B5189B-5CF6-4978-9B31-778F3823CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>2024.03.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수집포함 keyword
 (컬럼간 and 조건)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
+    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +680,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -703,16 +699,16 @@
     </row>
     <row r="2" spans="1:10" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -723,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -731,11 +727,11 @@
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11"/>
       <c r="J4" s="4" t="s">
@@ -747,9 +743,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="J5" s="4" t="s">
         <v>6</v>

--- a/ors_news_crawler.xlsx
+++ b/ors_news_crawler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B5189B-5CF6-4978-9B31-778F3823CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC8533-9D9D-4BEC-98E7-BCE547E91485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>2024.03.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   <si>
     <t>검색 page
 (1page = 기사 10건)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,7 +676,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -699,16 +695,16 @@
     </row>
     <row r="2" spans="1:10" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -719,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -727,15 +723,15 @@
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="11"/>
       <c r="J4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -746,7 +742,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -755,7 +751,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="J6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -764,7 +760,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,7 +769,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="J8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -782,7 +778,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,7 +787,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="J10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/ors_news_crawler.xlsx
+++ b/ors_news_crawler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC8533-9D9D-4BEC-98E7-BCE547E91485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA690865-BF93-41BE-BFE6-E85C164D0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
@@ -47,15 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>2024.03.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.03.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,7 +115,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
+    <t>2024.03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +684,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,7 +695,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -695,63 +703,65 @@
     </row>
     <row r="2" spans="1:10" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="11"/>
       <c r="J4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="J6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -760,7 +770,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -769,7 +779,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="J8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,7 +788,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -787,7 +797,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="J10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/ors_news_crawler.xlsx
+++ b/ors_news_crawler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA690865-BF93-41BE-BFE6-E85C164D0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164CB8CB-DCF1-4B32-8198-97BD7275BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>검색 page
 (1page = 기사 10건)</t>
@@ -123,15 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NH농협</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.01.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +680,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -703,65 +699,63 @@
     </row>
     <row r="2" spans="1:10" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11"/>
       <c r="J4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="J6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -770,7 +764,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,7 +773,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="J8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -788,7 +782,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,7 +791,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="J10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/ors_news_crawler.xlsx
+++ b/ors_news_crawler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164CB8CB-DCF1-4B32-8198-97BD7275BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE015EF-883B-4ECF-962A-449EF155FE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
